--- a/src/resources/patterns/Future/4.xlsx
+++ b/src/resources/patterns/Future/4.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProjects\VideoVLC\src\resources\patterns\Future\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="9465"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="День" sheetId="7" r:id="rId2"/>
     <sheet name="Вечер" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="75">
   <si>
     <t>Вид транспорта</t>
   </si>
@@ -209,6 +204,45 @@
   </si>
   <si>
     <t>время:</t>
+  </si>
+  <si>
+    <t>kindOfStatement</t>
+  </si>
+  <si>
+    <t>typeOfDirection</t>
+  </si>
+  <si>
+    <t>TreePath0</t>
+  </si>
+  <si>
+    <t>TreePath1</t>
+  </si>
+  <si>
+    <t>TreePath2</t>
+  </si>
+  <si>
+    <t>TreePath3</t>
+  </si>
+  <si>
+    <t>TreePath4</t>
+  </si>
+  <si>
+    <t>TreePath5</t>
+  </si>
+  <si>
+    <t>TreePath6</t>
+  </si>
+  <si>
+    <t>TreePath7</t>
+  </si>
+  <si>
+    <t>TreePath8</t>
+  </si>
+  <si>
+    <t>TreePath9</t>
+  </si>
+  <si>
+    <t>TreePath10</t>
   </si>
 </sst>
 </file>
@@ -741,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1000,10 +1034,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1013,9 +1047,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1064,7 +1095,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1099,7 +1130,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1319,9 +1350,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="21" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="34.28515625" customWidth="1"/>
@@ -1329,12 +1360,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A1" s="94"/>
+      <c r="A1" s="95" t="s">
+        <v>62</v>
+      </c>
       <c r="B1" s="94"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:48" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
+      <c r="A2" s="95" t="s">
+        <v>63</v>
+      </c>
       <c r="B2" s="94"/>
       <c r="C2" s="3"/>
       <c r="E2" s="91" t="s">
@@ -1385,7 +1420,9 @@
       <c r="AV2" s="91"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
+      <c r="A3" s="95" t="s">
+        <v>64</v>
+      </c>
       <c r="B3" s="94"/>
       <c r="C3" s="3"/>
       <c r="E3" s="93" t="s">
@@ -1436,8 +1473,10 @@
       <c r="AV3" s="93"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
+      <c r="A4" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="94"/>
       <c r="C4" s="4"/>
       <c r="E4" s="92" t="s">
         <v>51</v>
@@ -1487,8 +1526,10 @@
       <c r="AV4" s="92"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
+      <c r="A5" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="94"/>
       <c r="C5" s="4"/>
       <c r="E5" s="92" t="s">
         <v>52</v>
@@ -1538,8 +1579,10 @@
       <c r="AV5" s="92"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
+      <c r="A6" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="94"/>
       <c r="C6" s="4"/>
       <c r="E6" s="92" t="s">
         <v>53</v>
@@ -1589,8 +1632,10 @@
       <c r="AV6" s="92"/>
     </row>
     <row r="7" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96"/>
-      <c r="B7" s="97"/>
+      <c r="A7" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="94"/>
       <c r="E7" s="73" t="s">
         <v>54</v>
       </c>
@@ -1639,8 +1684,10 @@
       <c r="AV7" s="73"/>
     </row>
     <row r="8" spans="1:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
+      <c r="A8" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="94"/>
       <c r="E8" s="88" t="s">
         <v>0</v>
       </c>
@@ -1695,8 +1742,10 @@
       <c r="AV8" s="68"/>
     </row>
     <row r="9" spans="1:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
+      <c r="A9" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="94"/>
       <c r="E9" s="69"/>
       <c r="F9" s="70"/>
       <c r="G9" s="62" t="s">
@@ -1751,8 +1800,10 @@
       <c r="AV9" s="70"/>
     </row>
     <row r="10" spans="1:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="97"/>
-      <c r="B10" s="97"/>
+      <c r="A10" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="94"/>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1842,8 +1893,10 @@
       <c r="AV10" s="72"/>
     </row>
     <row r="11" spans="1:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="97"/>
-      <c r="B11" s="97"/>
+      <c r="A11" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="94"/>
       <c r="E11" s="71"/>
       <c r="F11" s="72"/>
       <c r="G11" s="5" t="s">
@@ -1974,8 +2027,10 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
-      <c r="B12" s="97"/>
+      <c r="A12" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="94"/>
       <c r="C12" s="52">
         <v>1</v>
       </c>
@@ -2137,8 +2192,10 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="97"/>
+      <c r="A13" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="94"/>
       <c r="C13" s="52">
         <v>1.5</v>
       </c>
@@ -2302,8 +2359,7 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="97"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="52">
         <v>1.8</v>
       </c>
@@ -2465,8 +2521,7 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="97"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="52">
         <v>2</v>
       </c>
@@ -2628,8 +2683,7 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
-      <c r="B16" s="97"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="52">
         <v>2.2000000000000002</v>
       </c>
@@ -2790,9 +2844,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="97"/>
+    <row r="17" spans="2:48" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="94"/>
       <c r="C17" s="52">
         <v>2.7</v>
       </c>
@@ -2953,9 +3006,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="97"/>
+    <row r="18" spans="2:48" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="94"/>
       <c r="C18" s="52">
         <v>2.2000000000000002</v>
       </c>
@@ -3118,7 +3170,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:48" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="94"/>
       <c r="C19" s="52">
         <v>2.7</v>
       </c>
@@ -3279,7 +3332,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:48" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="94"/>
       <c r="C20" s="52">
         <v>2.7</v>
       </c>
@@ -3440,7 +3494,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:48" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="94"/>
       <c r="C21" s="52">
         <v>2.7</v>
       </c>
@@ -3601,7 +3656,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:48" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="94"/>
       <c r="C22" s="52">
         <v>3.2</v>
       </c>
@@ -3762,7 +3818,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:48" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="94"/>
       <c r="C23" s="52">
         <v>3.2</v>
       </c>
@@ -3923,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="52">
         <v>1.5</v>
       </c>
@@ -4086,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="52">
         <v>1.8</v>
       </c>
@@ -4247,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" s="52">
         <v>2.2000000000000002</v>
       </c>
@@ -4407,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="52">
         <v>3</v>
       </c>
@@ -4568,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="52">
         <v>3.2</v>
       </c>
@@ -4729,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="52">
         <v>3.2</v>
       </c>
@@ -4890,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="52">
         <v>3.2</v>
       </c>
@@ -5051,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="64" t="s">
         <v>7</v>
       </c>
@@ -5225,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:48" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="5:48" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
